--- a/delta2/lib_e/index_v2.xlsx
+++ b/delta2/lib_e/index_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E4065C-1D56-9D45-A5AA-BE3726F0772D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53969FF-9F30-EF47-B82C-7C06A15509C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{B9854A86-CC15-974F-9E15-44FB86363952}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{B9854A86-CC15-974F-9E15-44FB86363952}"/>
   </bookViews>
   <sheets>
     <sheet name="intel" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="136">
   <si>
     <t>report</t>
   </si>
@@ -439,6 +439,12 @@
   </si>
   <si>
     <t>2020-06</t>
+  </si>
+  <si>
+    <t>https://thedfirreport.com/2021/10/18/icedid-to-xinglocker-ransomware-in-24-hours/</t>
+  </si>
+  <si>
+    <t>xinglocker</t>
   </si>
 </sst>
 </file>
@@ -578,8 +584,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C98A218-DF3C-5748-8743-8DAE26C2F1EA}" name="Table1" displayName="Table1" ref="A1:G55" totalsRowShown="0">
-  <autoFilter ref="A1:G55" xr:uid="{0C98A218-DF3C-5748-8743-8DAE26C2F1EA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C98A218-DF3C-5748-8743-8DAE26C2F1EA}" name="Table1" displayName="Table1" ref="A1:G56" totalsRowShown="0">
+  <autoFilter ref="A1:G56" xr:uid="{0C98A218-DF3C-5748-8743-8DAE26C2F1EA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F51">
     <sortCondition ref="B1:B51"/>
   </sortState>
@@ -913,11 +919,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7229EA-5051-394A-8046-1983CA09ED3F}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1865,6 +1871,14 @@
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1903,7 +1917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6964466-286A-6E4D-A35E-055CAEDDC6D7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
